--- a/biology/Origine et évolution du vivant/Gemmules/Gemmules.xlsx
+++ b/biology/Origine et évolution du vivant/Gemmules/Gemmules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gemmules sont les particules hypothétiques porteuses de l'hérédité, imaginées par Charles Darwin dans le cadre de sa théorie de la Pangenèse. Le concept de gemmules apparaît pour la première fois dans son ouvrage de 1868 De la variation des animaux et des plantes à l'état domestique[1] paru neuf ans après son œuvre fondatrice L'Origine des espèces.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gemmules sont les particules hypothétiques porteuses de l'hérédité, imaginées par Charles Darwin dans le cadre de sa théorie de la Pangenèse. Le concept de gemmules apparaît pour la première fois dans son ouvrage de 1868 De la variation des animaux et des plantes à l'état domestique paru neuf ans après son œuvre fondatrice L'Origine des espèces.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>L'hypothèse des gemmules</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gemmules, appelées aussi plastitudes ou pangènes, étaient supposées être des particules abritées dans les divers organes et transportées par la circulation sanguine jusqu'aux organes de la reproduction. Elles étaient supposées s'accumuler dans les cellules reproductrices, ou gamètes. Cette hypothèse tentait une explication pour justifier la transmission des caractères acquis, postulée par Jean-Baptiste Lamarck, caractères acquis par la fonction avant d'être intégrés dans le génome et que Darwin supposait être à l'origine de la variation des organismes vivants.
-Cette théorie est postérieure de deux années à la découverte des lois de l'hérédité par Mendel, publiée en 1866[2] et qui devinrent, après leur redécouverte en 1900, le modèle communément admis en génétique.
+Cette théorie est postérieure de deux années à la découverte des lois de l'hérédité par Mendel, publiée en 1866 et qui devinrent, après leur redécouverte en 1900, le modèle communément admis en génétique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Citation : la définition par Darwin des gemmules et de la pangenèse</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « 
@@ -577,7 +593,9 @@
           <t>La réfutation de l'hypothèse des gemmules</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Francis Galton entreprit sur des lapins des expériences qu'il espérait devoir corroborer l'hypothèse de son cousin, mais les résultats négatifs de ses études le conduisirent à réfuter la réalité des gemmules.
 </t>
